--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02.xlsx
@@ -11,7 +11,7 @@
     <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$286</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="226">
   <si>
     <t>Asignatura</t>
   </si>
@@ -616,9 +616,6 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>4º ESO</t>
-  </si>
-  <si>
     <t>FQ</t>
   </si>
   <si>
@@ -661,24 +658,15 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>Recurso M5A-02</t>
-  </si>
-  <si>
     <t>Recurso M4A-04</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Preguntas y problemas para identificar el MRU y MRUA</t>
   </si>
   <si>
-    <t>Recurso M101-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refuerza tu aprendizaje: Preguntas y problemas de lanzamiento vertical y caída libre </t>
   </si>
   <si>
-    <t>Recurso M101-02</t>
-  </si>
-  <si>
     <t>Banco de actividades: El movimiento en una dimensión</t>
   </si>
   <si>
@@ -710,6 +698,27 @@
   </si>
   <si>
     <t>Actividad para identificar las unidades del SI y las magnitudes más utilizadas en el estudio de los movimientos</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>La cinemática</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asocia conceptos principales de la cinemática con su significado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: El movimiento </t>
+  </si>
+  <si>
+    <t>La gravedad</t>
+  </si>
+  <si>
+    <t>FQ_10_04</t>
   </si>
 </sst>
 </file>
@@ -1072,76 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1158,6 +1098,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -1546,11 +1555,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:U286"/>
+  <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12:U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,100 +1582,100 @@
     <col min="17" max="17" width="20.28515625" style="34" customWidth="1"/>
     <col min="18" max="18" width="23" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" style="21" customWidth="1"/>
+    <col min="20" max="20" width="64.42578125" style="21" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" style="21" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="42"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="43" t="s">
         <v>110</v>
       </c>
       <c r="P1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="U1" s="58" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="54" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1693,7 +1702,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>20</v>
@@ -1772,20 +1781,20 @@
       <c r="P4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="9">
+        <v>8</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="S4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T4" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1815,7 +1824,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>20</v>
@@ -1837,16 +1846,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="U5" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1894,20 +1903,20 @@
       <c r="P6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="9">
+        <v>8</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="S6" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1955,16 +1964,16 @@
         <v>6</v>
       </c>
       <c r="R7" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T7" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2010,20 +2019,20 @@
       <c r="P8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="9">
+        <v>8</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R8" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S8" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T8" s="29" t="s">
         <v>138</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2071,20 +2080,20 @@
       <c r="P9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="9">
+        <v>8</v>
+      </c>
+      <c r="R9" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R9" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S9" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T9" s="29" t="s">
         <v>139</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2134,16 +2143,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S10" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T10" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2191,20 +2200,20 @@
       <c r="P11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="9">
+        <v>8</v>
+      </c>
+      <c r="R11" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R11" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S11" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T11" s="29" t="s">
         <v>141</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2250,20 +2259,20 @@
       <c r="P12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="9">
+        <v>8</v>
+      </c>
+      <c r="R12" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R12" s="28" t="s">
+      <c r="S12" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="T12" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="U12" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2307,20 +2316,20 @@
       <c r="P13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="9">
+        <v>8</v>
+      </c>
+      <c r="R13" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R13" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S13" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T13" s="29" t="s">
         <v>126</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2366,20 +2375,20 @@
       <c r="P14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="9">
+        <v>8</v>
+      </c>
+      <c r="R14" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R14" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S14" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T14" s="29" t="s">
         <v>143</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2429,16 +2438,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S15" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T15" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2488,16 +2497,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S16" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S16" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T16" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2518,7 +2527,7 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H17" s="14">
         <v>15</v>
@@ -2527,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>20</v>
@@ -2547,16 +2556,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S17" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T17" s="29" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2598,20 +2607,20 @@
       <c r="P18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="9">
+        <v>8</v>
+      </c>
+      <c r="R18" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R18" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S18" s="9" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="T18" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2653,20 +2662,20 @@
       <c r="P19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="9">
+        <v>8</v>
+      </c>
+      <c r="R19" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R19" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S19" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T19" s="29" t="s">
         <v>147</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2712,20 +2721,20 @@
       <c r="P20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="9">
+        <v>8</v>
+      </c>
+      <c r="R20" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R20" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S20" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T20" s="29" t="s">
         <v>148</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2769,77 +2778,77 @@
       <c r="P21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="9">
+        <v>8</v>
+      </c>
+      <c r="R21" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R21" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S21" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T21" s="29" t="s">
         <v>149</v>
       </c>
       <c r="U21" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="38">
+        <v>20</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="37">
+        <v>6</v>
+      </c>
+      <c r="R22" s="37" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="61">
-        <v>20</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="K22" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="60">
-        <v>6</v>
-      </c>
-      <c r="R22" s="60" t="s">
+      <c r="S22" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="S22" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="T22" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="U22" s="60" t="s">
-        <v>197</v>
+      <c r="T22" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2889,16 +2898,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S23" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T23" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2919,7 +2928,7 @@
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H24" s="14">
         <v>22</v>
@@ -2928,7 +2937,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>20</v>
@@ -2948,16 +2957,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S24" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S24" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T24" s="29" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2976,7 +2985,7 @@
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
       <c r="G25" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H25" s="24">
         <v>23</v>
@@ -2985,7 +2994,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>20</v>
@@ -3005,16 +3014,16 @@
         <v>6</v>
       </c>
       <c r="R25" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S25" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S25" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T25" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3060,20 +3069,20 @@
       <c r="P26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" s="9">
+        <v>8</v>
+      </c>
+      <c r="R26" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R26" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S26" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T26" s="29" t="s">
         <v>151</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3119,20 +3128,20 @@
       <c r="P27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="9">
+        <v>8</v>
+      </c>
+      <c r="R27" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="R27" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="S27" s="9" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="T27" s="29" t="s">
         <v>152</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3186,7 +3195,7 @@
         <v>188</v>
       </c>
       <c r="T28" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U28" s="9" t="s">
         <v>190</v>
@@ -3282,16 +3291,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S30" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S30" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T30" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3310,7 +3319,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H31" s="24">
         <v>29</v>
@@ -3319,7 +3328,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>20</v>
@@ -3339,16 +3348,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="S31" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="S31" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="T31" s="29" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4294,369 +4303,199 @@
       <c r="T72" s="29"/>
       <c r="U72" s="9"/>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4671,12 +4510,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02.xlsx
+++ b/fuentes/contenidos/grado10/guion02/EscaletaCN_10_02.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CienciasNaturales\fuentes\contenidos\grado10\guion02\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="504"/>
   </bookViews>
@@ -431,9 +436,6 @@
     <t>Asocia conceptos principales de la cinemática con su significado</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Identifica las unidades de las magnitudes físicas cinemáticas</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: El movimiento</t>
   </si>
   <si>
@@ -446,9 +448,6 @@
     <t>Calcula las magnitudes del movimiento rectilíneo uniforme</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Análisís gráfico del movimiento rectilíneo uniforme</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: El movimiento rectilíneo uniforme</t>
   </si>
   <si>
@@ -458,12 +457,6 @@
     <t>Resuelve problemas sobre el MRUA</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Análisis gráfico de movimiento rectilíneo uniformemente acelerado</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Solución de Problemas que combinan MRU y MRUA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comprende la caída libre de los cuerpos </t>
   </si>
   <si>
@@ -476,9 +469,6 @@
     <t>Los tipos de movimiento</t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Solución de problemas de lanzamiento vertical y caída libre </t>
-  </si>
-  <si>
     <t>Competencias: identificación de un movimiento</t>
   </si>
   <si>
@@ -528,9 +518,6 @@
   </si>
   <si>
     <t>Con esta actividad solucionarás problemas de movimiento por intervalos. Cada intervalo puede corresponder a un MRU o a un MRUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animación que compara la caída libre de diferentes objetos en el vacío y con resistencia del aire. </t>
   </si>
   <si>
     <t>Interactivo que explica las magnitudes que intervienen en la caída libre de los cuerpos</t>
@@ -720,11 +707,29 @@
   <si>
     <t>FQ_10_04</t>
   </si>
+  <si>
+    <t>Identifica las unidades de las magnitudes físicas cinemáticas</t>
+  </si>
+  <si>
+    <t>Animación que compara la caída libre de diferentes objetos en el vacío y con resistencia del aire</t>
+  </si>
+  <si>
+    <t>Análisis gráfico del movimiento rectilíneo uniforme</t>
+  </si>
+  <si>
+    <t>Análisis gráfico de movimiento rectilíneo uniformemente acelerado</t>
+  </si>
+  <si>
+    <t>Solución de Problemas que combinan MRU y MRUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solución de problemas de lanzamiento vertical y caída libre </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -764,7 +769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,14 +842,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -892,6 +891,28 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,7 +1002,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1084,20 +1105,29 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1105,12 +1135,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1150,22 +1174,79 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1310,7 +1391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1345,7 +1426,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1554,12 +1635,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12:U12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,94 +1669,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="60" t="s">
+      <c r="T1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="38" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="35" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="59"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1699,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>20</v>
@@ -1715,7 +1796,7 @@
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>19</v>
@@ -1724,16 +1805,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="T3" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,7 +1844,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>19</v>
@@ -1776,7 +1857,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>19</v>
@@ -1785,16 +1866,16 @@
         <v>8</v>
       </c>
       <c r="R4" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1815,7 +1896,7 @@
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="H5" s="14">
         <v>3</v>
@@ -1824,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>20</v>
@@ -1837,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>19</v>
@@ -1846,80 +1927,80 @@
         <v>6</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="80" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="F6" s="68"/>
+      <c r="G6" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="70">
         <v>4</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="25" t="s">
+      <c r="J6" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="K6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="75"/>
+      <c r="N6" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="P6" s="18" t="s">
+      <c r="O6" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="77">
         <v>8</v>
       </c>
-      <c r="R6" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R6" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="S6" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="T6" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="U6" s="77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1929,51 +2010,51 @@
       <c r="C7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="E7" s="60"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="62">
         <v>5</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K7" s="25" t="s">
+      <c r="J7" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27" t="s">
+      <c r="M7" s="17"/>
+      <c r="N7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="6">
         <v>6</v>
       </c>
-      <c r="R7" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>196</v>
+      <c r="R7" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1994,7 +2075,7 @@
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="14">
         <v>6</v>
@@ -2003,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>19</v>
@@ -2014,7 +2095,7 @@
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>19</v>
@@ -2023,16 +2104,16 @@
         <v>8</v>
       </c>
       <c r="R8" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2053,7 +2134,7 @@
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="14">
         <v>7</v>
@@ -2062,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>19</v>
@@ -2075,7 +2156,7 @@
         <v>24</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>19</v>
@@ -2084,16 +2165,16 @@
         <v>8</v>
       </c>
       <c r="R9" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2114,7 +2195,7 @@
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="H10" s="24">
         <v>8</v>
@@ -2123,7 +2204,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>20</v>
@@ -2143,80 +2224,80 @@
         <v>6</v>
       </c>
       <c r="R10" s="28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="T10" s="29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="80" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="F11" s="68"/>
+      <c r="G11" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="70">
         <v>9</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27" t="s">
+      <c r="M11" s="75"/>
+      <c r="N11" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" s="18" t="s">
+      <c r="O11" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="77">
         <v>8</v>
       </c>
-      <c r="R11" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="T11" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R11" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="S11" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="T11" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="U11" s="77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2226,53 +2307,53 @@
       <c r="C12" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="7" t="s">
-        <v>142</v>
+      <c r="E12" s="60"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="61" t="s">
+        <v>140</v>
       </c>
       <c r="H12" s="14">
         <v>10</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="J12" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27" t="s">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="23" t="s">
-        <v>184</v>
+      <c r="O12" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="6">
         <v>8</v>
       </c>
-      <c r="R12" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="T12" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>192</v>
+      <c r="R12" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2300,7 +2381,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>19</v>
@@ -2311,7 +2392,7 @@
       <c r="M13" s="27"/>
       <c r="N13" s="27"/>
       <c r="O13" s="23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>19</v>
@@ -2320,16 +2401,16 @@
         <v>8</v>
       </c>
       <c r="R13" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T13" s="29" t="s">
         <v>126</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2348,7 +2429,7 @@
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H14" s="14">
         <v>12</v>
@@ -2357,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>19</v>
@@ -2370,7 +2451,7 @@
         <v>24</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P14" s="18" t="s">
         <v>19</v>
@@ -2379,16 +2460,16 @@
         <v>8</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T14" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2409,7 +2490,7 @@
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="7" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="H15" s="14">
         <v>13</v>
@@ -2418,7 +2499,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>20</v>
@@ -2438,16 +2519,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T15" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="T15" s="29" t="s">
-        <v>199</v>
-      </c>
       <c r="U15" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2468,7 +2549,7 @@
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="H16" s="24">
         <v>14</v>
@@ -2477,7 +2558,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>20</v>
@@ -2497,78 +2578,78 @@
         <v>6</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S16" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T16" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="T16" s="29" t="s">
+      <c r="U16" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="80" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="U16" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="14">
+      <c r="H17" s="70">
         <v>15</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K17" s="25" t="s">
+      <c r="J17" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27" t="s">
+      <c r="M17" s="75"/>
+      <c r="N17" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="18" t="s">
+      <c r="O17" s="68"/>
+      <c r="P17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="77">
         <v>6</v>
       </c>
-      <c r="R17" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="T17" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="T17" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="U17" s="77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2578,49 +2659,49 @@
       <c r="C18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="7" t="s">
-        <v>146</v>
+      <c r="E18" s="60"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="61" t="s">
+        <v>142</v>
       </c>
       <c r="H18" s="14">
         <v>16</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K18" s="25" t="s">
+      <c r="J18" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="23"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
       <c r="P18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="Q18" s="6">
         <v>8</v>
       </c>
-      <c r="R18" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="T18" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>225</v>
+      <c r="R18" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2639,16 +2720,16 @@
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
       <c r="G19" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H19" s="24">
         <v>17</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>19</v>
@@ -2666,16 +2747,16 @@
         <v>8</v>
       </c>
       <c r="R19" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T19" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2694,7 +2775,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H20" s="14">
         <v>18</v>
@@ -2703,7 +2784,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>19</v>
@@ -2716,7 +2797,7 @@
         <v>24</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P20" s="18" t="s">
         <v>19</v>
@@ -2725,16 +2806,16 @@
         <v>8</v>
       </c>
       <c r="R20" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T20" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2753,7 +2834,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H21" s="14">
         <v>19</v>
@@ -2762,7 +2843,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>19</v>
@@ -2782,73 +2863,73 @@
         <v>8</v>
       </c>
       <c r="R21" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T21" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="38">
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="14">
         <v>20</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="K22" s="39" t="s">
+      <c r="J22" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39" t="s">
+      <c r="M22" s="27"/>
+      <c r="N22" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37" t="s">
+      <c r="O22" s="23"/>
+      <c r="P22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="9">
         <v>6</v>
       </c>
-      <c r="R22" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="S22" s="37" t="s">
+      <c r="R22" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T22" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="T22" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="U22" s="37" t="s">
-        <v>196</v>
+      <c r="U22" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2869,7 +2950,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="H23" s="14">
         <v>21</v>
@@ -2878,7 +2959,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>20</v>
@@ -2898,16 +2979,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2928,7 +3009,7 @@
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H24" s="14">
         <v>22</v>
@@ -2937,7 +3018,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>20</v>
@@ -2957,76 +3038,76 @@
         <v>6</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="T24" s="29" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="80" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H25" s="24">
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="83">
         <v>23</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="K25" s="25" t="s">
+      <c r="J25" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27" t="s">
+      <c r="M25" s="75"/>
+      <c r="N25" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23" t="s">
+      <c r="O25" s="68"/>
+      <c r="P25" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="77">
         <v>6</v>
       </c>
-      <c r="R25" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="T25" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R25" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="S25" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="T25" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="U25" s="77" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -3036,53 +3117,53 @@
       <c r="C26" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
+      <c r="E26" s="60"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="61" t="s">
+        <v>146</v>
       </c>
       <c r="H26" s="14">
         <v>24</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="25" t="s">
+      <c r="J26" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27" t="s">
+      <c r="M26" s="17"/>
+      <c r="N26" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="23" t="s">
-        <v>183</v>
+      <c r="O26" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="P26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q26" s="6">
         <v>8</v>
       </c>
-      <c r="R26" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="T26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>192</v>
+      <c r="R26" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3101,7 +3182,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23"/>
       <c r="G27" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H27" s="14">
         <v>25</v>
@@ -3110,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K27" s="25" t="s">
         <v>19</v>
@@ -3123,7 +3204,7 @@
         <v>121</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P27" s="18" t="s">
         <v>19</v>
@@ -3132,16 +3213,16 @@
         <v>8</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T27" s="29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3160,7 +3241,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="23"/>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H28" s="24">
         <v>26</v>
@@ -3169,7 +3250,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K28" s="25" t="s">
         <v>20</v>
@@ -3189,16 +3270,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="T28" s="29" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3217,7 +3298,7 @@
       <c r="E29" s="22"/>
       <c r="F29" s="23"/>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H29" s="14">
         <v>27</v>
@@ -3226,7 +3307,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K29" s="25" t="s">
         <v>20</v>
@@ -3262,16 +3343,16 @@
       <c r="E30" s="22"/>
       <c r="F30" s="23"/>
       <c r="G30" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H30" s="14">
         <v>28</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K30" s="25" t="s">
         <v>20</v>
@@ -3291,16 +3372,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="T30" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3319,7 +3400,7 @@
       <c r="E31" s="22"/>
       <c r="F31" s="23"/>
       <c r="G31" s="31" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H31" s="24">
         <v>29</v>
@@ -3328,7 +3409,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>20</v>
@@ -3348,16 +3429,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="T31" s="29" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4490,12 +4571,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4510,6 +4585,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4557,7 +4638,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
